--- a/程序员客栈项目/因卓科技教育平台/因卓教育阶段一/原型设计/因卓教育导入模板/学生信息.xlsx
+++ b/程序员客栈项目/因卓科技教育平台/因卓教育阶段一/原型设计/因卓教育导入模板/学生信息.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\personal\33_OpenSource\part-time-job\程序员客栈项目\因卓科技教育平台\原型设计\因卓教育导入模板\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\个人文件\other\因卓科技教育平台\导入模板\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="108" windowWidth="12768" windowHeight="5712"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
   </bookViews>
   <sheets>
     <sheet name="学生信息" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,94 +39,96 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学籍号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生2</t>
+  </si>
+  <si>
+    <t>学生3</t>
+  </si>
+  <si>
     <t>男</t>
   </si>
   <si>
     <t>女</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>测试</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>测试</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13756862764</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13756862764</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22010219890802181X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>610631198609071245</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学籍号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>350425197704108660</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>210112199001287973</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>451381198908267086</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15900000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15900000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15900000002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生4</t>
+  </si>
+  <si>
+    <t>学生5</t>
+  </si>
+  <si>
+    <t>220323199408284477</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>420222199304060626</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15900000003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15900000004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S002</t>
+  </si>
+  <si>
+    <t>S003</t>
+  </si>
+  <si>
+    <t>S004</t>
+  </si>
+  <si>
+    <t>S005</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -199,15 +201,13 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -228,7 +228,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -303,23 +303,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -355,23 +338,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -548,21 +514,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="A1:E3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.09765625" customWidth="1"/>
-    <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="4" max="4" width="16.5" customWidth="1"/>
-    <col min="5" max="5" width="25.09765625" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="7.375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="21.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="21.125" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -573,54 +541,105 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3">
-      <formula1>COUNTIF($C$2:$C$201,C2)=1</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B6">
+      <formula1>"男,女"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B3">
-      <formula1>"男,女"</formula1>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C6">
+      <formula1>COUNTIF($C$2:$C$177,C2)=1</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
